--- a/wwwroot/Templates/NhanVien.xlsx
+++ b/wwwroot/Templates/NhanVien.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\VietGis_baiTap\BaiTap-phan3\wwwroot\Templates\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57567FAD-F006-487F-B83D-A02145757770}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="22188" windowHeight="9144"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,10 +31,10 @@
     <t>Số điện thoại</t>
   </si>
   <si>
-    <t>Chức vụ</t>
+    <t>Phòng ban</t>
   </si>
   <si>
-    <t>Phòng ban</t>
+    <t>Chức vụ</t>
   </si>
   <si>
     <t xml:space="preserve">                                                                                                           ....................., Ngày .... tháng .... năm 202...
@@ -51,8 +45,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -66,8 +66,152 @@
       <name val="Times New Roman"/>
       <charset val="134"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -82,7 +226,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -92,28 +236,199 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="15">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -154,12 +469,18 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -171,9 +492,260 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -181,192 +753,123 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="17">
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
+        <b val="1"/>
         <color theme="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
         <color theme="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
         <color theme="1"/>
       </font>
       <border>
@@ -377,7 +880,7 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
         <color theme="0"/>
       </font>
       <fill>
@@ -405,40 +908,154 @@
           <color theme="4"/>
         </bottom>
         <horizontal style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
+          <color theme="4" tint="0.399975585192419"/>
         </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
       </border>
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
     <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
-      <tableStyleElement type="wholeTable" dxfId="16"/>
-      <tableStyleElement type="headerRow" dxfId="15"/>
-      <tableStyleElement type="totalRow" dxfId="14"/>
-      <tableStyleElement type="firstColumn" dxfId="13"/>
-      <tableStyleElement type="lastColumn" dxfId="12"/>
-      <tableStyleElement type="firstRowStripe" dxfId="11"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="10"/>
+      <tableStyleElement type="wholeTable" dxfId="6"/>
+      <tableStyleElement type="headerRow" dxfId="5"/>
+      <tableStyleElement type="totalRow" dxfId="4"/>
+      <tableStyleElement type="firstColumn" dxfId="3"/>
+      <tableStyleElement type="lastColumn" dxfId="2"/>
+      <tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
     </tableStyle>
     <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
-      <tableStyleElement type="headerRow" dxfId="9"/>
-      <tableStyleElement type="totalRow" dxfId="8"/>
-      <tableStyleElement type="firstRowStripe" dxfId="7"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="6"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="5"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="4"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="3"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="2"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="1"/>
-      <tableStyleElement type="pageFieldValues" dxfId="0"/>
+      <tableStyleElement type="headerRow" dxfId="16"/>
+      <tableStyleElement type="totalRow" dxfId="15"/>
+      <tableStyleElement type="firstRowStripe" dxfId="14"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
+      <tableStyleElement type="pageFieldValues" dxfId="7"/>
     </tableStyle>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -696,300 +1313,300 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="28.21875" customWidth="1"/>
-    <col min="3" max="3" width="23.88671875" customWidth="1"/>
-    <col min="4" max="4" width="24.109375" customWidth="1"/>
-    <col min="5" max="5" width="22.88671875" customWidth="1"/>
-    <col min="6" max="6" width="25.33203125" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" customWidth="1"/>
+    <col min="2" max="2" width="28.2222222222222" customWidth="1"/>
+    <col min="3" max="3" width="23.8888888888889" customWidth="1"/>
+    <col min="4" max="4" width="24.1111111111111" customWidth="1"/>
+    <col min="5" max="5" width="22.8888888888889" customWidth="1"/>
+    <col min="6" max="6" width="25.3333333333333" customWidth="1"/>
+    <col min="7" max="7" width="14.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="30.6">
-      <c r="A1" s="4" t="s">
+    <row r="1" ht="30.6" spans="1:6">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="6"/>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="1" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="1"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="1"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="10" t="s">
+    <row r="3" spans="1:6">
+      <c r="A3" s="4"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="4"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="4"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="4"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="4"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="1"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="1"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="4"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="4"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="1"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="7"/>
+      <c r="A10" s="4"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="9"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="1"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="7"/>
+      <c r="A11" s="4"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="9"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="1"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="7"/>
+      <c r="A12" s="4"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="9"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="1"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="7"/>
+      <c r="A13" s="4"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="9"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="1"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="7"/>
+      <c r="A14" s="4"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="9"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="1"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="7"/>
+      <c r="A15" s="4"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="9"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="1"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
+      <c r="A16" s="4"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="1"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="E25" s="8"/>
-      <c r="F25" s="9"/>
-    </row>
-    <row r="26" spans="1:12">
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-    </row>
-    <row r="28" spans="1:12">
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-    </row>
-    <row r="29" spans="1:12">
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-    </row>
-    <row r="30" spans="1:12">
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-    </row>
-    <row r="31" spans="1:12">
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-    </row>
-    <row r="32" spans="1:12">
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+    </row>
+    <row r="18" spans="5:7">
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+    </row>
+    <row r="19" spans="5:7">
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+    </row>
+    <row r="20" spans="5:6">
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+    </row>
+    <row r="21" spans="5:6">
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+    </row>
+    <row r="22" spans="5:7">
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+    </row>
+    <row r="23" spans="5:6">
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+    </row>
+    <row r="24" spans="5:6">
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+    </row>
+    <row r="25" spans="5:6">
+      <c r="E25" s="10"/>
+      <c r="F25" s="11"/>
+    </row>
+    <row r="26" spans="5:6">
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+    </row>
+    <row r="27" spans="5:6">
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+    </row>
+    <row r="28" spans="5:6">
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+    </row>
+    <row r="29" spans="5:6">
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+    </row>
+    <row r="30" spans="5:6">
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+    </row>
+    <row r="31" spans="5:6">
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+    </row>
+    <row r="32" spans="5:6">
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -997,5 +1614,6 @@
     <mergeCell ref="G7:K15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>